--- a/Manual Testing/Assignments/Module 2/HLR and Testcase on Instagram First Page.xlsx
+++ b/Manual Testing/Assignments/Module 2/HLR and Testcase on Instagram First Page.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="HLR" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,11 +18,57 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Test Plan Created Date</t>
+  </si>
+  <si>
+    <t>Developer Name</t>
+  </si>
+  <si>
+    <t>Jay Prajapati</t>
+  </si>
+  <si>
+    <t>Tester Name</t>
+  </si>
+  <si>
+    <t>Himanshu Koshti</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Feature No</t>
+  </si>
+  <si>
+    <t>Functionality Name</t>
+  </si>
+  <si>
+    <t>Result of Functionality</t>
+  </si>
+  <si>
+    <t>Instagam first Page</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -49,8 +95,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +392,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Manual Testing/Assignments/Module 2/HLR and Testcase on Instagram First Page.xlsx
+++ b/Manual Testing/Assignments/Module 2/HLR and Testcase on Instagram First Page.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
+    <sheet name="Testcase" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -394,7 +395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -459,4 +460,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Manual Testing/Assignments/Module 2/HLR and Testcase on Instagram First Page.xlsx
+++ b/Manual Testing/Assignments/Module 2/HLR and Testcase on Instagram First Page.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="106">
   <si>
     <t>Project Name</t>
   </si>
@@ -53,13 +53,333 @@
   </si>
   <si>
     <t>Instagam first Page</t>
+  </si>
+  <si>
+    <t>Testcase id</t>
+  </si>
+  <si>
+    <t>Testcase Name</t>
+  </si>
+  <si>
+    <t>Testcase Description</t>
+  </si>
+  <si>
+    <t>Pre-Conditions</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected Outcome/Results</t>
+  </si>
+  <si>
+    <t>Actual Outcome/Results</t>
+  </si>
+  <si>
+    <t>Post condition Pass/Fail</t>
+  </si>
+  <si>
+    <t>Login Test</t>
+  </si>
+  <si>
+    <t>without filling ay Data</t>
+  </si>
+  <si>
+    <t>1. Browser in working condition
+2.https://www.instagram.com/ - this url in working condition</t>
+  </si>
+  <si>
+    <t>1. Open Browser
+2. Open https://www.instagram.com/ 
+3. without filling any data directly click on Log in Button</t>
+  </si>
+  <si>
+    <t>Username : null
+Password : null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login Button Will disable. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">While User lick on Login button without filling any data, Login Button Will disable. </t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Login test</t>
+  </si>
+  <si>
+    <t>With filling proper data</t>
+  </si>
+  <si>
+    <t>1. Open Browser
+2. Open https://www.instagram.com/ 
+3. with filling proper data, click on Log in Button</t>
+  </si>
+  <si>
+    <t>User should  login sucessfully. User will be ditected to home page of instagram.</t>
+  </si>
+  <si>
+    <t>While user click on Login button with filiing proper data,User should  login sucessfully. User will be ditected to home page of instagram.</t>
+  </si>
+  <si>
+    <t>With Correct Username &amp; incorrect password</t>
+  </si>
+  <si>
+    <t>1. Open Browser
+2. Open https://www.instagram.com/ 
+3. with filling correct username &amp; incorrect password, click on Log in Button</t>
+  </si>
+  <si>
+    <t>Error should displayd that Sorry, your password was incorrect. Please double-check your password.</t>
+  </si>
+  <si>
+    <t>With Correct email id &amp; incorrect password</t>
+  </si>
+  <si>
+    <t>1. Open Browser
+2. Open https://www.instagram.com/ 
+3. with filling correct email id &amp; incorrect password, click on Log in Button</t>
+  </si>
+  <si>
+    <t>With Correct mobile no &amp; incorrect password</t>
+  </si>
+  <si>
+    <t>1. Open Browser
+2. Open https://www.instagram.com/ 
+3. with filling correct mobile no &amp; incorrect password, click on Log in Button</t>
+  </si>
+  <si>
+    <t>With incorrect username &amp; correct password</t>
+  </si>
+  <si>
+    <t>1. Open Browser
+2. Open https://www.instagram.com/ 
+3. with inorrect username &amp; correct password, click on Log in Button</t>
+  </si>
+  <si>
+    <t>With incorrect email id &amp; correct password</t>
+  </si>
+  <si>
+    <t>1. Open Browser
+2. Open https://www.instagram.com/ 
+3. with inorrect email id &amp; correct password, click on Log in Button</t>
+  </si>
+  <si>
+    <t>With incorrect mobile no &amp; correct password</t>
+  </si>
+  <si>
+    <t>1. Open Browser
+2. Open https://www.instagram.com/ 
+3. with inorrect mobile no &amp; correct password, click on Log in Button</t>
+  </si>
+  <si>
+    <t>login with facebook</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>1. Open Browser
+2. Open https://www.instagram.com/ 
+3. click on login with facebook</t>
+  </si>
+  <si>
+    <t>User should reach on facebook page where should enter facebook username and facebook password</t>
+  </si>
+  <si>
+    <t>Forgot Password</t>
+  </si>
+  <si>
+    <t>Forgot Password with correct username</t>
+  </si>
+  <si>
+    <t>1. Open Browser
+2. Open https://www.instagram.com/ 
+3. Click on Forgot password</t>
+  </si>
+  <si>
+    <t>Username : himanshu_koshti
+Password : yiucgud</t>
+  </si>
+  <si>
+    <t>Username : himanshu_koshti
+Password : 05091995</t>
+  </si>
+  <si>
+    <t>email id : hemu.koshti@gmail.com
+Password : hzeyhr</t>
+  </si>
+  <si>
+    <t>mobile no : 8905684954
+Password : tjhzrdhj</t>
+  </si>
+  <si>
+    <t>Username :  hbbrhhurvhu
+Password : 05091995</t>
+  </si>
+  <si>
+    <t>Username : dhjgs@gmail.com
+password : 05091995</t>
+  </si>
+  <si>
+    <t>Username : 000000000
+password : 05091995</t>
+  </si>
+  <si>
+    <t>username : himanshu_koshti</t>
+  </si>
+  <si>
+    <t>System will send the link to reset the password . And shows that We sent an email to h********i@gmail.com with a link to get back into your account</t>
+  </si>
+  <si>
+    <t>Sign up</t>
+  </si>
+  <si>
+    <t>1. Open Browser
+2. Open https://www.instagram.com/ 
+3. Click on Sign up</t>
+  </si>
+  <si>
+    <t>Mobile no:  8905684954
+Full name: Himanshu Koshti
+User name: himanshu_koshti
+Password : 05091995</t>
+  </si>
+  <si>
+    <t>Check Phone Number, user name or email address</t>
+  </si>
+  <si>
+    <t>Check Password</t>
+  </si>
+  <si>
+    <t>While user click on this field, the cursor is showing there,where user should enter email address, mobile numer or user name</t>
+  </si>
+  <si>
+    <t>While User click on password ,the cursor is showing there,where user should enter passwoed</t>
+  </si>
+  <si>
+    <t>Check Continue using facebook</t>
+  </si>
+  <si>
+    <t>While user click on Continue using facebook, user redirected to the new page where user should enter email or phone no and password to Log in.</t>
+  </si>
+  <si>
+    <t>Check continue with google</t>
+  </si>
+  <si>
+    <t>While use click on continue with google, user rediected to new page where user should login with google account.</t>
+  </si>
+  <si>
+    <t>A new pop box wil open where user should enter OTP then User account created successfully.</t>
+  </si>
+  <si>
+    <t>Check Forgoten Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While user click on forgotten password, user should reach on new page where messege shown that Enter your email address, phone number or username, and we'll send you a link to get back into your account.
+</t>
+  </si>
+  <si>
+    <t>Check Sign Up</t>
+  </si>
+  <si>
+    <t>While user click on Sign Up, a new Page open where by entering mobile no,full name,username,password to Sign Up.</t>
+  </si>
+  <si>
+    <t>Check Meta</t>
+  </si>
+  <si>
+    <t>Check About</t>
+  </si>
+  <si>
+    <t>Check Blog</t>
+  </si>
+  <si>
+    <t>Check Jobs</t>
+  </si>
+  <si>
+    <t>Check Help</t>
+  </si>
+  <si>
+    <t>Check Api</t>
+  </si>
+  <si>
+    <t>Check Privacy</t>
+  </si>
+  <si>
+    <t>Check Terms</t>
+  </si>
+  <si>
+    <t>Check Locations</t>
+  </si>
+  <si>
+    <t>Check Instagram lite</t>
+  </si>
+  <si>
+    <t>Check Threads</t>
+  </si>
+  <si>
+    <t>Check Contact uploading and non-users</t>
+  </si>
+  <si>
+    <t>While user click on meta then a new tab opened, where all information about meta</t>
+  </si>
+  <si>
+    <t>While user click on about then a new tab opened where all informations , features of instagram</t>
+  </si>
+  <si>
+    <t>While user click on blog then a new tab opened where user can read all articles &amp; about all topics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While user click on jobs then a new page opened where user can join instagram </t>
+  </si>
+  <si>
+    <t>While user click on help then a new tab Help center opened</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While user click on api then a new tab instagram platforms  opened </t>
+  </si>
+  <si>
+    <t>While user click on privacy then a new page opened, where user should manage his/her privacy.</t>
+  </si>
+  <si>
+    <t>While user click on terms then a new page of  Help Center opened</t>
+  </si>
+  <si>
+    <t>While user click on locations then a new tab opened, where user can see the countries.</t>
+  </si>
+  <si>
+    <t>While user click on lite then a new page opened, where user should download instagram lite</t>
+  </si>
+  <si>
+    <t>While user click on threads then a new tab opened where user can see threads</t>
+  </si>
+  <si>
+    <t>While user click on users then user redirected to help center</t>
+  </si>
+  <si>
+    <t>Check Meta Verified</t>
+  </si>
+  <si>
+    <t>While user click on meta verified ,a new tab open become meta verified.</t>
+  </si>
+  <si>
+    <t>English (UK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While user click on Dropdoen arrow , user can select any language </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,16 +395,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -92,11 +440,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -113,9 +477,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -393,17 +797,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="65.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -455,6 +859,226 @@
       </c>
       <c r="C7" s="5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>9</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>12</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>14</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>15</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>16</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>17</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>18</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>19</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>20</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -464,12 +1088,378 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Manual Testing/Assignments/Module 2/HLR and Testcase on Instagram First Page.xlsx
+++ b/Manual Testing/Assignments/Module 2/HLR and Testcase on Instagram First Page.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
@@ -799,7 +799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1090,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,7 +1136,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>

--- a/Manual Testing/Assignments/Module 2/HLR and Testcase on Instagram First Page.xlsx
+++ b/Manual Testing/Assignments/Module 2/HLR and Testcase on Instagram First Page.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
